--- a/test.xlsx
+++ b/test.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -31,7 +31,7 @@
     <t>专业</t>
   </si>
   <si>
-    <t>胡俊喜</t>
+    <t>胡</t>
   </si>
   <si>
     <t>一般</t>
@@ -46,7 +46,7 @@
     <t>计科</t>
   </si>
   <si>
-    <t>描述符</t>
+    <t>描</t>
   </si>
   <si>
     <t>电信2班</t>
@@ -61,7 +61,7 @@
     <t>电气</t>
   </si>
   <si>
-    <t>大家啊</t>
+    <t>大</t>
   </si>
   <si>
     <t>资环3班</t>
@@ -79,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,6 +92,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -101,6 +117,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -108,28 +138,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,39 +205,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,56 +230,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,25 +245,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,25 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,127 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,31 +439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,17 +469,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,16 +512,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>姓名</t>
   </si>
@@ -71,6 +71,555 @@
   </si>
   <si>
     <t>起舞</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>计算机1</t>
+  </si>
+  <si>
+    <t>计算机2</t>
+  </si>
+  <si>
+    <t>计算机3</t>
+  </si>
+  <si>
+    <t>计算机4</t>
+  </si>
+  <si>
+    <t>计算机5</t>
+  </si>
+  <si>
+    <t>计算机6</t>
+  </si>
+  <si>
+    <t>计算机7</t>
+  </si>
+  <si>
+    <t>计算机8</t>
+  </si>
+  <si>
+    <t>计算机9</t>
+  </si>
+  <si>
+    <t>计算机10</t>
+  </si>
+  <si>
+    <t>计算机11</t>
+  </si>
+  <si>
+    <t>计算机12</t>
+  </si>
+  <si>
+    <t>计算机13</t>
+  </si>
+  <si>
+    <t>计算机14</t>
+  </si>
+  <si>
+    <t>计算机15</t>
+  </si>
+  <si>
+    <t>计算机16</t>
+  </si>
+  <si>
+    <t>计算机17</t>
+  </si>
+  <si>
+    <t>计算机18</t>
+  </si>
+  <si>
+    <t>计算机19</t>
+  </si>
+  <si>
+    <t>计算机20</t>
+  </si>
+  <si>
+    <t>计算机21</t>
+  </si>
+  <si>
+    <t>计算机22</t>
+  </si>
+  <si>
+    <t>计算机23</t>
+  </si>
+  <si>
+    <t>计算机24</t>
+  </si>
+  <si>
+    <t>计算机25</t>
+  </si>
+  <si>
+    <t>计算机26</t>
+  </si>
+  <si>
+    <t>计算机27</t>
+  </si>
+  <si>
+    <t>计算机28</t>
+  </si>
+  <si>
+    <t>计算机29</t>
+  </si>
+  <si>
+    <t>计算机30</t>
+  </si>
+  <si>
+    <t>计算机31</t>
+  </si>
+  <si>
+    <t>计算机32</t>
+  </si>
+  <si>
+    <t>计算机33</t>
+  </si>
+  <si>
+    <t>计算机34</t>
+  </si>
+  <si>
+    <t>计算机35</t>
+  </si>
+  <si>
+    <t>计算机36</t>
+  </si>
+  <si>
+    <t>计算机37</t>
+  </si>
+  <si>
+    <t>计算机38</t>
+  </si>
+  <si>
+    <t>计算机39</t>
+  </si>
+  <si>
+    <t>计算机40</t>
+  </si>
+  <si>
+    <t>计算机41</t>
+  </si>
+  <si>
+    <t>计算机42</t>
+  </si>
+  <si>
+    <t>计算机43</t>
+  </si>
+  <si>
+    <t>计算机44</t>
+  </si>
+  <si>
+    <t>计算机45</t>
+  </si>
+  <si>
+    <t>计算机46</t>
+  </si>
+  <si>
+    <t>计算机47</t>
+  </si>
+  <si>
+    <t>计算机48</t>
+  </si>
+  <si>
+    <t>计算机49</t>
+  </si>
+  <si>
+    <t>计算机50</t>
+  </si>
+  <si>
+    <t>计算机51</t>
+  </si>
+  <si>
+    <t>计算机52</t>
+  </si>
+  <si>
+    <t>计算机53</t>
+  </si>
+  <si>
+    <t>计算机54</t>
+  </si>
+  <si>
+    <t>计算机55</t>
+  </si>
+  <si>
+    <t>计算机56</t>
+  </si>
+  <si>
+    <t>计算机57</t>
+  </si>
+  <si>
+    <t>计算机58</t>
+  </si>
+  <si>
+    <t>计算机59</t>
+  </si>
+  <si>
+    <t>计算机60</t>
+  </si>
+  <si>
+    <t>计算机61</t>
+  </si>
+  <si>
+    <t>计算机62</t>
+  </si>
+  <si>
+    <t>计算机63</t>
+  </si>
+  <si>
+    <t>计算机64</t>
+  </si>
+  <si>
+    <t>计算机65</t>
+  </si>
+  <si>
+    <t>计算机66</t>
+  </si>
+  <si>
+    <t>计算机67</t>
+  </si>
+  <si>
+    <t>计算机68</t>
+  </si>
+  <si>
+    <t>计算机69</t>
+  </si>
+  <si>
+    <t>计算机70</t>
+  </si>
+  <si>
+    <t>计算机71</t>
+  </si>
+  <si>
+    <t>计算机72</t>
+  </si>
+  <si>
+    <t>计算机73</t>
+  </si>
+  <si>
+    <t>计算机74</t>
+  </si>
+  <si>
+    <t>计算机75</t>
+  </si>
+  <si>
+    <t>计算机76</t>
+  </si>
+  <si>
+    <t>计算机77</t>
+  </si>
+  <si>
+    <t>计算机78</t>
+  </si>
+  <si>
+    <t>计算机79</t>
+  </si>
+  <si>
+    <t>计算机80</t>
+  </si>
+  <si>
+    <t>计算机81</t>
+  </si>
+  <si>
+    <t>计算机82</t>
+  </si>
+  <si>
+    <t>计算机83</t>
+  </si>
+  <si>
+    <t>计算机84</t>
+  </si>
+  <si>
+    <t>计算机85</t>
+  </si>
+  <si>
+    <t>计算机86</t>
+  </si>
+  <si>
+    <t>计算机87</t>
+  </si>
+  <si>
+    <t>计算机88</t>
+  </si>
+  <si>
+    <t>计算机89</t>
+  </si>
+  <si>
+    <t>计算机90</t>
+  </si>
+  <si>
+    <t>计算机91</t>
+  </si>
+  <si>
+    <t>计算机92</t>
+  </si>
+  <si>
+    <t>计算机93</t>
+  </si>
+  <si>
+    <t>计算机94</t>
+  </si>
+  <si>
+    <t>计算机95</t>
+  </si>
+  <si>
+    <t>计算机96</t>
+  </si>
+  <si>
+    <t>计算机97</t>
+  </si>
+  <si>
+    <t>计算机98</t>
+  </si>
+  <si>
+    <t>计算机99</t>
+  </si>
+  <si>
+    <t>计算机100</t>
+  </si>
+  <si>
+    <t>计算机101</t>
+  </si>
+  <si>
+    <t>计算机102</t>
+  </si>
+  <si>
+    <t>计算机103</t>
+  </si>
+  <si>
+    <t>计算机104</t>
+  </si>
+  <si>
+    <t>计算机105</t>
+  </si>
+  <si>
+    <t>计算机106</t>
+  </si>
+  <si>
+    <t>计算机107</t>
+  </si>
+  <si>
+    <t>计算机108</t>
+  </si>
+  <si>
+    <t>计算机109</t>
+  </si>
+  <si>
+    <t>计算机110</t>
+  </si>
+  <si>
+    <t>计算机111</t>
+  </si>
+  <si>
+    <t>计算机112</t>
+  </si>
+  <si>
+    <t>计算机113</t>
+  </si>
+  <si>
+    <t>计算机114</t>
+  </si>
+  <si>
+    <t>计算机115</t>
+  </si>
+  <si>
+    <t>计算机116</t>
+  </si>
+  <si>
+    <t>计算机117</t>
+  </si>
+  <si>
+    <t>计算机118</t>
+  </si>
+  <si>
+    <t>计算机119</t>
+  </si>
+  <si>
+    <t>计算机120</t>
+  </si>
+  <si>
+    <t>计算机121</t>
+  </si>
+  <si>
+    <t>计算机122</t>
+  </si>
+  <si>
+    <t>计算机123</t>
+  </si>
+  <si>
+    <t>计算机124</t>
+  </si>
+  <si>
+    <t>计算机125</t>
+  </si>
+  <si>
+    <t>计算机126</t>
+  </si>
+  <si>
+    <t>计算机127</t>
+  </si>
+  <si>
+    <t>计算机128</t>
+  </si>
+  <si>
+    <t>计算机129</t>
+  </si>
+  <si>
+    <t>计算机130</t>
+  </si>
+  <si>
+    <t>计算机131</t>
+  </si>
+  <si>
+    <t>计算机132</t>
+  </si>
+  <si>
+    <t>计算机133</t>
+  </si>
+  <si>
+    <t>计算机134</t>
+  </si>
+  <si>
+    <t>计算机135</t>
+  </si>
+  <si>
+    <t>计算机136</t>
+  </si>
+  <si>
+    <t>计算机137</t>
+  </si>
+  <si>
+    <t>计算机138</t>
+  </si>
+  <si>
+    <t>计算机139</t>
+  </si>
+  <si>
+    <t>计算机140</t>
+  </si>
+  <si>
+    <t>计算机141</t>
+  </si>
+  <si>
+    <t>计算机142</t>
+  </si>
+  <si>
+    <t>计算机143</t>
+  </si>
+  <si>
+    <t>计算机144</t>
+  </si>
+  <si>
+    <t>计算机145</t>
+  </si>
+  <si>
+    <t>计算机146</t>
+  </si>
+  <si>
+    <t>计算机147</t>
+  </si>
+  <si>
+    <t>计算机148</t>
+  </si>
+  <si>
+    <t>计算机149</t>
+  </si>
+  <si>
+    <t>计算机150</t>
+  </si>
+  <si>
+    <t>计算机151</t>
+  </si>
+  <si>
+    <t>计算机152</t>
+  </si>
+  <si>
+    <t>计算机153</t>
+  </si>
+  <si>
+    <t>计算机154</t>
+  </si>
+  <si>
+    <t>计算机155</t>
+  </si>
+  <si>
+    <t>计算机156</t>
+  </si>
+  <si>
+    <t>计算机157</t>
+  </si>
+  <si>
+    <t>计算机158</t>
+  </si>
+  <si>
+    <t>计算机159</t>
+  </si>
+  <si>
+    <t>计算机160</t>
+  </si>
+  <si>
+    <t>计算机161</t>
+  </si>
+  <si>
+    <t>计算机162</t>
+  </si>
+  <si>
+    <t>计算机163</t>
+  </si>
+  <si>
+    <t>计算机164</t>
+  </si>
+  <si>
+    <t>计算机165</t>
+  </si>
+  <si>
+    <t>计算机166</t>
+  </si>
+  <si>
+    <t>计算机167</t>
+  </si>
+  <si>
+    <t>计算机168</t>
+  </si>
+  <si>
+    <t>计算机169</t>
+  </si>
+  <si>
+    <t>计算机170</t>
+  </si>
+  <si>
+    <t>计算机171</t>
+  </si>
+  <si>
+    <t>计算机172</t>
+  </si>
+  <si>
+    <t>计算机173</t>
+  </si>
+  <si>
+    <t>计算机174</t>
+  </si>
+  <si>
+    <t>计算机175</t>
+  </si>
+  <si>
+    <t>计算机176</t>
+  </si>
+  <si>
+    <t>计算机177</t>
+  </si>
+  <si>
+    <t>计算机178</t>
+  </si>
+  <si>
+    <t>计算机179</t>
+  </si>
+  <si>
+    <t>计算机180</t>
+  </si>
+  <si>
+    <t>计算机181</t>
+  </si>
+  <si>
+    <t>计算机182</t>
   </si>
 </sst>
 </file>
@@ -78,10 +627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,91 +641,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,17 +664,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +688,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -230,7 +717,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,7 +800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +812,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,19 +896,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,43 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,55 +950,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,19 +974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +1018,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +1038,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,21 +1075,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -544,10 +1093,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +1105,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,13 +1561,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="3" max="3" width="11.5"/>
@@ -1092,6 +1641,3100 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <v>54</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59">
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60">
+        <v>56</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61">
+        <v>57</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62">
+        <v>58</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63">
+        <v>59</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65">
+        <v>61</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66">
+        <v>62</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68">
+        <v>64</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69">
+        <v>65</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70">
+        <v>66</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71">
+        <v>67</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73">
+        <v>69</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74">
+        <v>70</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75">
+        <v>71</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79">
+        <v>75</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80">
+        <v>76</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81">
+        <v>77</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82">
+        <v>78</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83">
+        <v>79</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84">
+        <v>80</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85">
+        <v>81</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86">
+        <v>82</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87">
+        <v>83</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88">
+        <v>84</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89">
+        <v>85</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90">
+        <v>86</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91">
+        <v>87</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92">
+        <v>88</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93">
+        <v>89</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94">
+        <v>90</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95">
+        <v>91</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96">
+        <v>92</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98">
+        <v>94</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99">
+        <v>95</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100">
+        <v>96</v>
+      </c>
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101">
+        <v>97</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102">
+        <v>98</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103">
+        <v>99</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104">
+        <v>100</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105">
+        <v>101</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106">
+        <v>102</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107">
+        <v>103</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108">
+        <v>104</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109">
+        <v>105</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110">
+        <v>106</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111">
+        <v>107</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112">
+        <v>108</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113">
+        <v>109</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114">
+        <v>110</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115">
+        <v>111</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116">
+        <v>112</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117">
+        <v>113</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118">
+        <v>114</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119">
+        <v>115</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120">
+        <v>116</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121">
+        <v>117</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122">
+        <v>118</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123">
+        <v>119</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124">
+        <v>120</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125">
+        <v>121</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126">
+        <v>122</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>142</v>
+      </c>
+      <c r="C127">
+        <v>123</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128">
+        <v>124</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129">
+        <v>125</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130">
+        <v>126</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131">
+        <v>127</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" t="s">
+        <v>147</v>
+      </c>
+      <c r="C132">
+        <v>128</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133">
+        <v>129</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" t="s">
+        <v>149</v>
+      </c>
+      <c r="C134">
+        <v>130</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135">
+        <v>131</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136">
+        <v>132</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137">
+        <v>133</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>153</v>
+      </c>
+      <c r="C138">
+        <v>134</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C139">
+        <v>135</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" t="s">
+        <v>155</v>
+      </c>
+      <c r="C140">
+        <v>136</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" t="s">
+        <v>156</v>
+      </c>
+      <c r="C141">
+        <v>137</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142">
+        <v>138</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143">
+        <v>139</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144">
+        <v>140</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>160</v>
+      </c>
+      <c r="C145">
+        <v>141</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" t="s">
+        <v>161</v>
+      </c>
+      <c r="C146">
+        <v>142</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147">
+        <v>143</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148">
+        <v>144</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149">
+        <v>145</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
+        <v>165</v>
+      </c>
+      <c r="C150">
+        <v>146</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" t="s">
+        <v>166</v>
+      </c>
+      <c r="C151">
+        <v>147</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" t="s">
+        <v>167</v>
+      </c>
+      <c r="C152">
+        <v>148</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
+        <v>168</v>
+      </c>
+      <c r="C153">
+        <v>149</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" t="s">
+        <v>169</v>
+      </c>
+      <c r="C154">
+        <v>150</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>170</v>
+      </c>
+      <c r="C155">
+        <v>151</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>171</v>
+      </c>
+      <c r="C156">
+        <v>152</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C157">
+        <v>153</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158">
+        <v>154</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
+        <v>174</v>
+      </c>
+      <c r="C159">
+        <v>155</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
+        <v>175</v>
+      </c>
+      <c r="C160">
+        <v>156</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>176</v>
+      </c>
+      <c r="C161">
+        <v>157</v>
+      </c>
+      <c r="D161" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
+        <v>177</v>
+      </c>
+      <c r="C162">
+        <v>158</v>
+      </c>
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
+        <v>178</v>
+      </c>
+      <c r="C163">
+        <v>159</v>
+      </c>
+      <c r="D163" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" t="s">
+        <v>179</v>
+      </c>
+      <c r="C164">
+        <v>160</v>
+      </c>
+      <c r="D164" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
+        <v>180</v>
+      </c>
+      <c r="C165">
+        <v>161</v>
+      </c>
+      <c r="D165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
+        <v>181</v>
+      </c>
+      <c r="C166">
+        <v>162</v>
+      </c>
+      <c r="D166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" t="s">
+        <v>182</v>
+      </c>
+      <c r="C167">
+        <v>163</v>
+      </c>
+      <c r="D167" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" t="s">
+        <v>183</v>
+      </c>
+      <c r="C168">
+        <v>164</v>
+      </c>
+      <c r="D168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" t="s">
+        <v>184</v>
+      </c>
+      <c r="C169">
+        <v>165</v>
+      </c>
+      <c r="D169" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" t="s">
+        <v>185</v>
+      </c>
+      <c r="C170">
+        <v>166</v>
+      </c>
+      <c r="D170" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" t="s">
+        <v>186</v>
+      </c>
+      <c r="C171">
+        <v>167</v>
+      </c>
+      <c r="D171" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" t="s">
+        <v>187</v>
+      </c>
+      <c r="C172">
+        <v>168</v>
+      </c>
+      <c r="D172" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" t="s">
+        <v>188</v>
+      </c>
+      <c r="C173">
+        <v>169</v>
+      </c>
+      <c r="D173" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" t="s">
+        <v>189</v>
+      </c>
+      <c r="C174">
+        <v>170</v>
+      </c>
+      <c r="D174" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175" t="s">
+        <v>190</v>
+      </c>
+      <c r="C175">
+        <v>171</v>
+      </c>
+      <c r="D175" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176" t="s">
+        <v>191</v>
+      </c>
+      <c r="C176">
+        <v>172</v>
+      </c>
+      <c r="D176" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B177" t="s">
+        <v>192</v>
+      </c>
+      <c r="C177">
+        <v>173</v>
+      </c>
+      <c r="D177" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" t="s">
+        <v>193</v>
+      </c>
+      <c r="C178">
+        <v>174</v>
+      </c>
+      <c r="D178" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179" t="s">
+        <v>194</v>
+      </c>
+      <c r="C179">
+        <v>175</v>
+      </c>
+      <c r="D179" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180" t="s">
+        <v>195</v>
+      </c>
+      <c r="C180">
+        <v>176</v>
+      </c>
+      <c r="D180" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181" t="s">
+        <v>196</v>
+      </c>
+      <c r="C181">
+        <v>177</v>
+      </c>
+      <c r="D181" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" t="s">
+        <v>197</v>
+      </c>
+      <c r="C182">
+        <v>178</v>
+      </c>
+      <c r="D182" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" t="s">
+        <v>198</v>
+      </c>
+      <c r="C183">
+        <v>179</v>
+      </c>
+      <c r="D183" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" t="s">
+        <v>199</v>
+      </c>
+      <c r="C184">
+        <v>180</v>
+      </c>
+      <c r="D184" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" t="s">
+        <v>200</v>
+      </c>
+      <c r="C185">
+        <v>181</v>
+      </c>
+      <c r="D185" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" t="s">
+        <v>201</v>
+      </c>
+      <c r="C186">
+        <v>182</v>
+      </c>
+      <c r="D186" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8550"/>
+    <workbookView windowWidth="19890" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,13 @@
     <t>专业</t>
   </si>
   <si>
-    <t>胡觉得</t>
+    <t>胡觉</t>
   </si>
   <si>
     <t>一般</t>
   </si>
   <si>
-    <t>0110160222</t>
+    <t>99110160222</t>
   </si>
   <si>
     <t>无</t>
@@ -46,13 +46,13 @@
     <t>计科</t>
   </si>
   <si>
-    <t>描是的</t>
+    <t>描是</t>
   </si>
   <si>
     <t>电信2班</t>
   </si>
   <si>
-    <t>0210162215</t>
+    <t>1210162215</t>
   </si>
   <si>
     <t>信息院</t>
@@ -61,13 +61,13 @@
     <t>电气</t>
   </si>
   <si>
-    <t>阿萨德啊</t>
+    <t>阿萨德</t>
   </si>
   <si>
     <t>资环3班</t>
   </si>
   <si>
-    <t>0012312322</t>
+    <t>1012312322</t>
   </si>
   <si>
     <t>自安元</t>
@@ -82,8 +82,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -96,6 +96,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -103,25 +110,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,38 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,40 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,187 +248,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +439,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,15 +477,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,21 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -519,8 +519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8025"/>
+    <workbookView windowWidth="30708" windowHeight="14268"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,13 @@
     <t>专业</t>
   </si>
   <si>
-    <t>胡觉</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>99110160222</t>
+    <t>张1004</t>
+  </si>
+  <si>
+    <t>自动化1</t>
+  </si>
+  <si>
+    <t>0111</t>
   </si>
   <si>
     <t>无</t>
@@ -46,13 +46,13 @@
     <t>计科</t>
   </si>
   <si>
-    <t>描是</t>
+    <t>张1002</t>
   </si>
   <si>
     <t>电信2班</t>
   </si>
   <si>
-    <t>1210162215</t>
+    <t>0122</t>
   </si>
   <si>
     <t>信息院</t>
@@ -61,13 +61,13 @@
     <t>电气</t>
   </si>
   <si>
-    <t>阿萨德</t>
+    <t>张1003</t>
   </si>
   <si>
     <t>资环3班</t>
   </si>
   <si>
-    <t>1012312322</t>
+    <t>013</t>
   </si>
   <si>
     <t>自安元</t>
@@ -81,8 +81,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -95,6 +95,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -102,8 +117,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,53 +166,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,21 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -194,9 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +197,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +234,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,12 +248,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -266,7 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,19 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,133 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,30 +439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,6 +453,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,20 +503,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +524,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,141 +559,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,13 +1018,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.625"/>
-    <col min="3" max="3" width="11.5"/>
+    <col min="2" max="2" width="12.6296296296296"/>
+    <col min="3" max="3" width="11.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1034,7 +1034,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
